--- a/data/interim/parsing_2.xlsx
+++ b/data/interim/parsing_2.xlsx
@@ -429,6 +429,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>cod2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
